--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Epo</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.352701990454555</v>
+        <v>0.419201</v>
       </c>
       <c r="H2">
-        <v>0.352701990454555</v>
+        <v>1.257603</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8650221929663464</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8650221929663463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.58373131962988</v>
+        <v>10.866902</v>
       </c>
       <c r="N2">
-        <v>6.58373131962988</v>
+        <v>32.600706</v>
       </c>
       <c r="O2">
-        <v>0.1583909026268656</v>
+        <v>0.2279134186299707</v>
       </c>
       <c r="P2">
-        <v>0.1583909026268656</v>
+        <v>0.2279134186299707</v>
       </c>
       <c r="Q2">
-        <v>2.322095141051453</v>
+        <v>4.555416185302001</v>
       </c>
       <c r="R2">
-        <v>2.322095141051453</v>
+        <v>40.998745667718</v>
       </c>
       <c r="S2">
-        <v>0.1583909026268656</v>
+        <v>0.1971501651897542</v>
       </c>
       <c r="T2">
-        <v>0.1583909026268656</v>
+        <v>0.1971501651897541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.352701990454555</v>
+        <v>0.419201</v>
       </c>
       <c r="H3">
-        <v>0.352701990454555</v>
+        <v>1.257603</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8650221929663464</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8650221929663463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.00822086861873</v>
+        <v>6.066838000000001</v>
       </c>
       <c r="N3">
-        <v>6.00822086861873</v>
+        <v>18.200514</v>
       </c>
       <c r="O3">
-        <v>0.1445453163808013</v>
+        <v>0.1272408446173725</v>
       </c>
       <c r="P3">
-        <v>0.1445453163808013</v>
+        <v>0.1272408446173725</v>
       </c>
       <c r="Q3">
-        <v>2.119111459452422</v>
+        <v>2.543224556438</v>
       </c>
       <c r="R3">
-        <v>2.119111459452422</v>
+        <v>22.889021007942</v>
       </c>
       <c r="S3">
-        <v>0.1445453163808013</v>
+        <v>0.1100661544458097</v>
       </c>
       <c r="T3">
-        <v>0.1445453163808013</v>
+        <v>0.1100661544458096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.352701990454555</v>
+        <v>0.419201</v>
       </c>
       <c r="H4">
-        <v>0.352701990454555</v>
+        <v>1.257603</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8650221929663464</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8650221929663463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.187379047157</v>
+        <v>22.801689</v>
       </c>
       <c r="N4">
-        <v>21.187379047157</v>
+        <v>68.405067</v>
       </c>
       <c r="O4">
-        <v>0.5097243384721531</v>
+        <v>0.4782237744048302</v>
       </c>
       <c r="P4">
-        <v>0.5097243384721531</v>
+        <v>0.4782237744048301</v>
       </c>
       <c r="Q4">
-        <v>7.472830762447407</v>
+        <v>9.558490830488999</v>
       </c>
       <c r="R4">
-        <v>7.472830762447407</v>
+        <v>86.026417474401</v>
       </c>
       <c r="S4">
-        <v>0.5097243384721531</v>
+        <v>0.4136741780643095</v>
       </c>
       <c r="T4">
-        <v>0.5097243384721531</v>
+        <v>0.4136741780643094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.419201</v>
+      </c>
+      <c r="H5">
+        <v>1.257603</v>
+      </c>
+      <c r="I5">
+        <v>0.8650221929663464</v>
+      </c>
+      <c r="J5">
+        <v>0.8650221929663463</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>7.944527999999999</v>
+      </c>
+      <c r="N5">
+        <v>23.833584</v>
+      </c>
+      <c r="O5">
+        <v>0.1666219623478268</v>
+      </c>
+      <c r="P5">
+        <v>0.1666219623478268</v>
+      </c>
+      <c r="Q5">
+        <v>3.330354082128</v>
+      </c>
+      <c r="R5">
+        <v>29.973186739152</v>
+      </c>
+      <c r="S5">
+        <v>0.1441316952664731</v>
+      </c>
+      <c r="T5">
+        <v>0.1441316952664731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.065412</v>
+      </c>
+      <c r="H6">
+        <v>0.196236</v>
+      </c>
+      <c r="I6">
+        <v>0.1349778070336537</v>
+      </c>
+      <c r="J6">
+        <v>0.1349778070336536</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.866902</v>
+      </c>
+      <c r="N6">
+        <v>32.600706</v>
+      </c>
+      <c r="O6">
+        <v>0.2279134186299707</v>
+      </c>
+      <c r="P6">
+        <v>0.2279134186299707</v>
+      </c>
+      <c r="Q6">
+        <v>0.7108257936240001</v>
+      </c>
+      <c r="R6">
+        <v>6.397432142616</v>
+      </c>
+      <c r="S6">
+        <v>0.03076325344021651</v>
+      </c>
+      <c r="T6">
+        <v>0.0307632534402165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.065412</v>
+      </c>
+      <c r="H7">
+        <v>0.196236</v>
+      </c>
+      <c r="I7">
+        <v>0.1349778070336537</v>
+      </c>
+      <c r="J7">
+        <v>0.1349778070336536</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.066838000000001</v>
+      </c>
+      <c r="N7">
+        <v>18.200514</v>
+      </c>
+      <c r="O7">
+        <v>0.1272408446173725</v>
+      </c>
+      <c r="P7">
+        <v>0.1272408446173725</v>
+      </c>
+      <c r="Q7">
+        <v>0.3968440072560001</v>
+      </c>
+      <c r="R7">
+        <v>3.571596065304</v>
+      </c>
+      <c r="S7">
+        <v>0.01717469017156281</v>
+      </c>
+      <c r="T7">
+        <v>0.01717469017156281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.352701990454555</v>
-      </c>
-      <c r="H5">
-        <v>0.352701990454555</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>7.78701639214542</v>
-      </c>
-      <c r="N5">
-        <v>7.78701639214542</v>
-      </c>
-      <c r="O5">
-        <v>0.1873394425201801</v>
-      </c>
-      <c r="P5">
-        <v>0.1873394425201801</v>
-      </c>
-      <c r="Q5">
-        <v>2.746496181211938</v>
-      </c>
-      <c r="R5">
-        <v>2.746496181211938</v>
-      </c>
-      <c r="S5">
-        <v>0.1873394425201801</v>
-      </c>
-      <c r="T5">
-        <v>0.1873394425201801</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.065412</v>
+      </c>
+      <c r="H8">
+        <v>0.196236</v>
+      </c>
+      <c r="I8">
+        <v>0.1349778070336537</v>
+      </c>
+      <c r="J8">
+        <v>0.1349778070336536</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>22.801689</v>
+      </c>
+      <c r="N8">
+        <v>68.405067</v>
+      </c>
+      <c r="O8">
+        <v>0.4782237744048302</v>
+      </c>
+      <c r="P8">
+        <v>0.4782237744048301</v>
+      </c>
+      <c r="Q8">
+        <v>1.491504080868</v>
+      </c>
+      <c r="R8">
+        <v>13.423536727812</v>
+      </c>
+      <c r="S8">
+        <v>0.0645495963405207</v>
+      </c>
+      <c r="T8">
+        <v>0.06454959634052067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.065412</v>
+      </c>
+      <c r="H9">
+        <v>0.196236</v>
+      </c>
+      <c r="I9">
+        <v>0.1349778070336537</v>
+      </c>
+      <c r="J9">
+        <v>0.1349778070336536</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.944527999999999</v>
+      </c>
+      <c r="N9">
+        <v>23.833584</v>
+      </c>
+      <c r="O9">
+        <v>0.1666219623478268</v>
+      </c>
+      <c r="P9">
+        <v>0.1666219623478268</v>
+      </c>
+      <c r="Q9">
+        <v>0.519667465536</v>
+      </c>
+      <c r="R9">
+        <v>4.677007189824</v>
+      </c>
+      <c r="S9">
+        <v>0.02249026708135367</v>
+      </c>
+      <c r="T9">
+        <v>0.02249026708135366</v>
       </c>
     </row>
   </sheetData>
